--- a/BackTest/2019-10-28 BackTest WTC.xlsx
+++ b/BackTest/2019-10-28 BackTest WTC.xlsx
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4546,13 +4546,17 @@
         <v>856.95</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>849</v>
+      </c>
+      <c r="K119" t="n">
+        <v>849</v>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
@@ -4581,14 +4585,22 @@
         <v>856.15</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>849</v>
+      </c>
+      <c r="K120" t="n">
+        <v>849</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4628,22 @@
         <v>855.55</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>851</v>
+      </c>
+      <c r="K121" t="n">
+        <v>849</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4671,22 @@
         <v>855.1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>851</v>
+      </c>
+      <c r="K122" t="n">
+        <v>849</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4714,22 @@
         <v>854.9</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>857</v>
+      </c>
+      <c r="K123" t="n">
+        <v>849</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4757,22 @@
         <v>854.1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>845</v>
+      </c>
+      <c r="K124" t="n">
+        <v>849</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,12 +4806,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>843</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+        <v>842</v>
+      </c>
+      <c r="K125" t="n">
+        <v>849</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4805,7 +4851,9 @@
       <c r="J126" t="n">
         <v>842</v>
       </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>849</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,9 +4892,11 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>842</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>843</v>
+      </c>
+      <c r="K127" t="n">
+        <v>849</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4885,9 +4935,11 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>840</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+        <v>842</v>
+      </c>
+      <c r="K128" t="n">
+        <v>849</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4928,7 +4980,9 @@
       <c r="J129" t="n">
         <v>839</v>
       </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>849</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,7 +5023,9 @@
       <c r="J130" t="n">
         <v>839</v>
       </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>849</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,7 +5066,9 @@
       <c r="J131" t="n">
         <v>839</v>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>849</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,15 +5101,15 @@
         <v>846.75</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>840</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>849</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5092,7 +5150,9 @@
       <c r="J133" t="n">
         <v>839</v>
       </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>849</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,15 +5185,15 @@
         <v>845.1</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>839</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>849</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,15 +5226,15 @@
         <v>844.4</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>841</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>849</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,15 +5267,15 @@
         <v>843.9</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>842</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>849</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,15 +5308,15 @@
         <v>843.65</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>844</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>849</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,15 +5349,15 @@
         <v>843.75</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>851</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>849</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,15 +5390,15 @@
         <v>844.05</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>855</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>849</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,15 +5431,15 @@
         <v>844.3</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>856</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>849</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,15 +5472,15 @@
         <v>844.8</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>861</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>849</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,15 +5513,15 @@
         <v>845.1</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>859</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>849</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,15 +5554,15 @@
         <v>845.85</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>864</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>849</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,15 +5595,15 @@
         <v>846.95</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>864</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>849</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,15 +5636,15 @@
         <v>848.6</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>876</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>849</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5623,7 +5683,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>849</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5662,7 +5724,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>849</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,7 +5765,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>849</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5740,7 +5806,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>849</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5779,7 +5847,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>849</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,17 +5885,19 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>849</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>1</v>
+        <v>1.063315665488811</v>
       </c>
     </row>
     <row r="152">
@@ -5854,15 +5926,11 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5893,15 +5961,11 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5932,15 +5996,11 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5971,15 +6031,11 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6010,15 +6066,11 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6053,11 +6105,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6092,11 +6140,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6131,11 +6175,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6170,11 +6210,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6245,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6248,11 +6280,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6287,11 +6315,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6322,16 +6346,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6359,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6394,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6429,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6464,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6499,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6534,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -13464,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest WTC.xlsx
+++ b/BackTest/2019-10-28 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14775.0112</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>15549.258</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>878</v>
-      </c>
-      <c r="J3" t="n">
-        <v>878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>878</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,19 +550,11 @@
         <v>19473.85512403628</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>882</v>
-      </c>
-      <c r="J5" t="n">
-        <v>878</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,19 +583,11 @@
         <v>20363.6263</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>882</v>
-      </c>
-      <c r="J6" t="n">
-        <v>878</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,19 +616,11 @@
         <v>24936.4549</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>885</v>
-      </c>
-      <c r="J7" t="n">
-        <v>878</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,19 +649,11 @@
         <v>33510.56050000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>889</v>
-      </c>
-      <c r="J8" t="n">
-        <v>878</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -724,19 +682,15 @@
         <v>42836.8147</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>901</v>
       </c>
       <c r="J9" t="n">
-        <v>878</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -765,17 +719,17 @@
         <v>42836.8147</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>919</v>
       </c>
       <c r="J10" t="n">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -806,15 +760,17 @@
         <v>44076.8147</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>919</v>
+      </c>
       <c r="J11" t="n">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -848,14 +804,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>878</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -884,17 +834,15 @@
         <v>39750.54790000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>900</v>
+      </c>
       <c r="J13" t="n">
-        <v>878</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,15 +871,17 @@
         <v>38329.49200000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>918</v>
+      </c>
       <c r="J14" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -962,15 +912,17 @@
         <v>33655.9449</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>910</v>
+      </c>
       <c r="J15" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1001,11 +953,13 @@
         <v>31498.1346</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>900</v>
+      </c>
       <c r="J16" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1040,11 +994,13 @@
         <v>29166.0081</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>898</v>
+      </c>
       <c r="J17" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1079,11 +1035,13 @@
         <v>32938.5173</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>887</v>
+      </c>
       <c r="J18" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1118,11 +1076,13 @@
         <v>32722.2265</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>915</v>
+      </c>
       <c r="J19" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1157,11 +1117,13 @@
         <v>34268.6287</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>885</v>
+      </c>
       <c r="J20" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1196,11 +1158,13 @@
         <v>29734.1016</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>898</v>
+      </c>
       <c r="J21" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1239,7 +1203,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1274,11 +1238,13 @@
         <v>29344.9532</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>891</v>
+      </c>
       <c r="J23" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1317,7 +1283,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1352,11 +1318,13 @@
         <v>27138.0667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>869</v>
+      </c>
       <c r="J25" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1391,11 +1359,13 @@
         <v>27139.5099</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>851</v>
+      </c>
       <c r="J26" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1430,11 +1400,13 @@
         <v>23850.0674</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>898</v>
+      </c>
       <c r="J27" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1469,11 +1441,13 @@
         <v>24386.8905</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>880</v>
+      </c>
       <c r="J28" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1508,11 +1482,13 @@
         <v>26520.63010000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>883</v>
+      </c>
       <c r="J29" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1547,11 +1523,13 @@
         <v>26982.72300000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>890</v>
+      </c>
       <c r="J30" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1586,11 +1564,13 @@
         <v>26617.50310000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>891</v>
+      </c>
       <c r="J31" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1629,7 +1609,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1664,11 +1644,13 @@
         <v>27512.42760000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>890</v>
+      </c>
       <c r="J33" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1707,7 +1689,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1746,7 +1728,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1785,7 +1767,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1824,7 +1806,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1863,7 +1845,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1902,7 +1884,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1941,7 +1923,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1980,7 +1962,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2019,7 +2001,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2058,7 +2040,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2097,7 +2079,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2136,7 +2118,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2175,7 +2157,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2214,7 +2196,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2253,7 +2235,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2288,11 +2270,13 @@
         <v>27147.24000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>856</v>
+      </c>
       <c r="J49" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2331,7 +2315,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2370,7 +2354,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2409,7 +2393,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2448,7 +2432,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2487,7 +2471,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2526,7 +2510,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2565,7 +2549,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2604,7 +2588,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2643,7 +2627,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2682,7 +2666,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2721,7 +2705,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2760,7 +2744,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2799,7 +2783,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2838,7 +2822,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2877,7 +2861,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2916,7 +2900,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2955,7 +2939,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2994,7 +2978,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3033,7 +3017,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3072,7 +3056,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3111,7 +3095,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3150,7 +3134,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3189,7 +3173,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3228,7 +3212,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3267,7 +3251,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3306,7 +3290,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3345,7 +3329,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3384,7 +3368,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3423,7 +3407,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3462,7 +3446,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3501,7 +3485,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3540,7 +3524,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3579,7 +3563,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3618,7 +3602,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3657,7 +3641,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3696,7 +3680,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3735,7 +3719,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3774,7 +3758,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3813,7 +3797,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3852,7 +3836,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3891,7 +3875,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3930,7 +3914,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3969,7 +3953,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4008,7 +3992,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4047,7 +4031,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4082,19 +4066,19 @@
         <v>27003.06650000001</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.024612756264237</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -4124,8 +4108,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>900</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4157,8 +4147,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>900</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +4186,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>900</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4223,8 +4225,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>900</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4256,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>900</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4303,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>900</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4322,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>900</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4355,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>900</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4388,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>900</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4421,8 +4459,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>900</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>900</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4487,8 +4537,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>900</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4520,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>900</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4553,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>900</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4586,8 +4654,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>900</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4619,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>900</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4652,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>900</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4685,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>900</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4718,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>900</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4751,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>900</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4784,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>900</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4817,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>900</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4850,8 +4966,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>900</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4883,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>900</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4916,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>900</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4949,8 +5083,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>900</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4982,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>900</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5015,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>900</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5048,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>900</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5081,8 +5239,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>900</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>900</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>900</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5180,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>900</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5213,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>900</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5246,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>900</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5279,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>900</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5312,8 +5512,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>900</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>900</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5378,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>900</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5411,8 +5629,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>900</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5444,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>900</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5477,8 +5707,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>900</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5510,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>900</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5543,8 +5785,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>900</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5576,8 +5824,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>900</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5609,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>900</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5642,8 +5902,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>900</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5675,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>900</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5708,8 +5980,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>900</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5741,8 +6019,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>900</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5774,8 +6058,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>900</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5807,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>900</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5840,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>900</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5873,8 +6175,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>900</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5906,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>900</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5939,8 +6253,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>900</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5972,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>900</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6005,8 +6331,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>900</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6038,8 +6370,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>900</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6071,8 +6409,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>900</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6104,8 +6448,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>900</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6137,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>900</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6170,8 +6526,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>900</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6203,8 +6565,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>900</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6236,8 +6604,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>900</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6269,8 +6643,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>900</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6682,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>900</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6335,8 +6721,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>900</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6368,8 +6760,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>900</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6401,8 +6799,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>900</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6434,8 +6838,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>900</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6874,19 @@
         <v>25917.35632477378</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>860</v>
+      </c>
+      <c r="J167" t="n">
+        <v>900</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6497,11 +6915,19 @@
         <v>25421.85582477378</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>860</v>
+      </c>
+      <c r="J168" t="n">
+        <v>900</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6530,11 +6956,19 @@
         <v>25421.85582477378</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>858</v>
+      </c>
+      <c r="J169" t="n">
+        <v>900</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +6997,19 @@
         <v>25400.33252477378</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>858</v>
+      </c>
+      <c r="J170" t="n">
+        <v>900</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6596,11 +7038,19 @@
         <v>25400.33252477378</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>856</v>
+      </c>
+      <c r="J171" t="n">
+        <v>900</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6629,11 +7079,19 @@
         <v>25400.33252477378</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>856</v>
+      </c>
+      <c r="J172" t="n">
+        <v>900</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6662,11 +7120,19 @@
         <v>24492.15492477378</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>856</v>
+      </c>
+      <c r="J173" t="n">
+        <v>900</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6695,11 +7161,19 @@
         <v>24494.15492477378</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>845</v>
+      </c>
+      <c r="J174" t="n">
+        <v>900</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +7202,19 @@
         <v>23471.72422477378</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>855</v>
+      </c>
+      <c r="J175" t="n">
+        <v>900</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6761,11 +7243,19 @@
         <v>23349.70522477378</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>852</v>
+      </c>
+      <c r="J176" t="n">
+        <v>900</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6794,15 +7284,19 @@
         <v>23349.70522477378</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>849</v>
       </c>
       <c r="J177" t="n">
-        <v>849</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+        <v>900</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6831,17 +7325,17 @@
         <v>23349.70522477378</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>849</v>
       </c>
       <c r="J178" t="n">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6872,17 +7366,17 @@
         <v>23808.77522477378</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>849</v>
       </c>
       <c r="J179" t="n">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6913,15 +7407,19 @@
         <v>23808.77522477378</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>851</v>
       </c>
       <c r="J180" t="n">
-        <v>851</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+        <v>900</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6950,17 +7448,17 @@
         <v>25124.50072477378</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>851</v>
       </c>
       <c r="J181" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6991,13 +7489,13 @@
         <v>23496.32002477378</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>857</v>
       </c>
       <c r="J182" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7032,13 +7530,13 @@
         <v>23141.32002477378</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>845</v>
       </c>
       <c r="J183" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7073,13 +7571,13 @@
         <v>23141.32002477378</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>842</v>
       </c>
       <c r="J184" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7114,13 +7612,13 @@
         <v>23149.68532477378</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>842</v>
       </c>
       <c r="J185" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7155,13 +7653,13 @@
         <v>22193.82962477378</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>843</v>
       </c>
       <c r="J186" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7196,13 +7694,13 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>842</v>
       </c>
       <c r="J187" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7237,13 +7735,13 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>839</v>
       </c>
       <c r="J188" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7278,13 +7776,13 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>839</v>
       </c>
       <c r="J189" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7319,13 +7817,13 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>839</v>
       </c>
       <c r="J190" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7360,13 +7858,13 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>839</v>
       </c>
       <c r="J191" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7401,13 +7899,13 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>839</v>
       </c>
       <c r="J192" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7442,13 +7940,13 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>839</v>
       </c>
       <c r="J193" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7483,13 +7981,13 @@
         <v>22427.34752477378</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>839</v>
       </c>
       <c r="J194" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7524,13 +8022,13 @@
         <v>22427.34752477378</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>842</v>
       </c>
       <c r="J195" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7565,13 +8063,13 @@
         <v>23663.74452477378</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>842</v>
       </c>
       <c r="J196" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7606,13 +8104,13 @@
         <v>24460.76172477378</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>844</v>
       </c>
       <c r="J197" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7647,13 +8145,11 @@
         <v>24555.16172477378</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7692,7 +8188,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7731,7 +8227,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7770,7 +8266,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7809,7 +8305,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7848,7 +8344,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7887,7 +8383,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7926,7 +8422,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7965,7 +8461,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8004,7 +8500,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8043,7 +8539,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8082,7 +8578,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8121,7 +8617,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8160,7 +8656,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8199,7 +8695,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8238,7 +8734,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8277,7 +8773,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8316,7 +8812,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8351,11 +8847,11 @@
         <v>36872.29942477378</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8394,7 +8890,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8433,7 +8929,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8472,7 +8968,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8507,11 +9003,11 @@
         <v>33968.43002477378</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8550,7 +9046,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8585,11 +9081,11 @@
         <v>34367.96739370582</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8624,11 +9120,11 @@
         <v>32969.29259370582</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8663,11 +9159,11 @@
         <v>32827.29259370582</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8702,11 +9198,11 @@
         <v>32377.29259370582</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8741,11 +9237,11 @@
         <v>33627.29259370582</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8784,7 +9280,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8819,11 +9315,11 @@
         <v>30413.85929370582</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8858,11 +9354,11 @@
         <v>30034.24799370582</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8897,11 +9393,11 @@
         <v>30245.64199370582</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8936,11 +9432,11 @@
         <v>30222.20199370582</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8975,11 +9471,11 @@
         <v>30042.20199370582</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9016,9 +9512,11 @@
       <c r="H233" t="n">
         <v>1</v>
       </c>
-      <c r="I233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>875</v>
+      </c>
       <c r="J233" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9055,9 +9553,11 @@
       <c r="H234" t="n">
         <v>1</v>
       </c>
-      <c r="I234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>882</v>
+      </c>
       <c r="J234" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9094,9 +9594,11 @@
       <c r="H235" t="n">
         <v>1</v>
       </c>
-      <c r="I235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>875</v>
+      </c>
       <c r="J235" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9133,9 +9635,11 @@
       <c r="H236" t="n">
         <v>1</v>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>896</v>
+      </c>
       <c r="J236" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9172,9 +9676,11 @@
       <c r="H237" t="n">
         <v>1</v>
       </c>
-      <c r="I237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>884</v>
+      </c>
       <c r="J237" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9211,9 +9717,11 @@
       <c r="H238" t="n">
         <v>1</v>
       </c>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>883</v>
+      </c>
       <c r="J238" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9250,9 +9758,11 @@
       <c r="H239" t="n">
         <v>1</v>
       </c>
-      <c r="I239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>875</v>
+      </c>
       <c r="J239" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9289,9 +9799,11 @@
       <c r="H240" t="n">
         <v>1</v>
       </c>
-      <c r="I240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>873</v>
+      </c>
       <c r="J240" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9326,11 +9838,13 @@
         <v>30454.40339370582</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>876</v>
+      </c>
       <c r="J241" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9367,9 +9881,11 @@
       <c r="H242" t="n">
         <v>1</v>
       </c>
-      <c r="I242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>887</v>
+      </c>
       <c r="J242" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9404,11 +9920,13 @@
         <v>30080.75339370582</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>880</v>
+      </c>
       <c r="J243" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9445,9 +9963,11 @@
       <c r="H244" t="n">
         <v>1</v>
       </c>
-      <c r="I244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>880</v>
+      </c>
       <c r="J244" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9482,11 +10002,13 @@
         <v>33673.11599370582</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>876</v>
+      </c>
       <c r="J245" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9523,9 +10045,11 @@
       <c r="H246" t="n">
         <v>1</v>
       </c>
-      <c r="I246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>888</v>
+      </c>
       <c r="J246" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9564,7 +10088,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9603,7 +10127,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9642,7 +10166,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9681,7 +10205,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9720,7 +10244,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9759,7 +10283,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9798,7 +10322,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9837,7 +10361,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9876,7 +10400,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9915,7 +10439,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9954,7 +10478,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9993,7 +10517,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10032,7 +10556,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10071,7 +10595,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10110,7 +10634,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10149,7 +10673,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10188,7 +10712,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10227,7 +10751,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10266,7 +10790,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10305,7 +10829,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10344,7 +10868,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10383,7 +10907,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10422,7 +10946,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10461,7 +10985,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10500,7 +11024,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10539,7 +11063,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10578,7 +11102,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10617,7 +11141,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10656,7 +11180,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10695,7 +11219,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10734,7 +11258,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10773,7 +11297,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10812,7 +11336,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10851,7 +11375,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10890,7 +11414,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10929,7 +11453,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10968,7 +11492,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11007,7 +11531,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11046,7 +11570,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11085,7 +11609,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11124,7 +11648,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11163,7 +11687,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11202,7 +11726,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11241,7 +11765,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11280,7 +11804,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11319,7 +11843,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11358,7 +11882,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11397,7 +11921,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11436,7 +11960,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11475,7 +11999,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11514,7 +12038,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11553,7 +12077,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11592,7 +12116,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11631,7 +12155,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11670,7 +12194,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11709,7 +12233,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11748,7 +12272,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11787,7 +12311,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11826,7 +12350,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11865,7 +12389,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11904,7 +12428,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11943,7 +12467,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11982,7 +12506,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12021,7 +12545,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12060,7 +12584,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12099,7 +12623,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12138,7 +12662,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12177,7 +12701,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12216,7 +12740,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12255,7 +12779,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12294,7 +12818,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12333,7 +12857,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12372,7 +12896,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12411,7 +12935,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12450,7 +12974,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12489,7 +13013,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12528,7 +13052,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12567,7 +13091,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12606,7 +13130,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12645,7 +13169,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12684,7 +13208,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12723,7 +13247,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12762,7 +13286,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12801,7 +13325,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12840,7 +13364,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12879,7 +13403,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12918,7 +13442,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12957,7 +13481,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12996,7 +13520,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13035,7 +13559,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13074,7 +13598,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13113,7 +13637,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13152,7 +13676,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13191,7 +13715,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13230,7 +13754,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13269,7 +13793,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13308,7 +13832,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13347,7 +13871,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13386,7 +13910,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13425,7 +13949,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13464,7 +13988,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13503,7 +14027,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13542,7 +14066,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13581,7 +14105,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13620,7 +14144,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13659,7 +14183,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13698,7 +14222,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13737,7 +14261,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13776,7 +14300,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13815,7 +14339,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13854,7 +14378,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13893,7 +14417,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13932,7 +14456,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13971,7 +14495,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14010,7 +14534,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14049,7 +14573,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14088,7 +14612,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14127,7 +14651,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14166,7 +14690,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14205,7 +14729,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14244,7 +14768,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14283,7 +14807,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14322,7 +14846,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14361,7 +14885,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14400,7 +14924,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14439,7 +14963,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14478,7 +15002,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14517,7 +15041,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14556,7 +15080,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14595,7 +15119,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14634,7 +15158,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14673,7 +15197,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14712,7 +15236,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14751,7 +15275,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14790,7 +15314,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14829,7 +15353,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14868,7 +15392,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14907,7 +15431,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14946,7 +15470,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14985,7 +15509,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15024,7 +15548,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15063,7 +15587,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15102,7 +15626,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15141,7 +15665,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15180,7 +15704,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15219,7 +15743,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15258,7 +15782,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15297,7 +15821,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15336,7 +15860,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15375,7 +15899,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15410,23 +15934,21 @@
         <v>61779.31059370584</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>851</v>
+        <v>900</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
-        <v>1.08430669800235</v>
-      </c>
-      <c r="M397" t="n">
-        <v>1.105325443786982</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -15451,11 +15973,17 @@
         <v>60715.18059370584</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>900</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15484,11 +16012,17 @@
         <v>56275.72099370584</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>900</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15520,8 +16054,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>900</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15553,8 +16093,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>900</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15586,8 +16132,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>900</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15619,8 +16171,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>900</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15652,8 +16210,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>900</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15685,8 +16249,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>900</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15718,8 +16288,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>900</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15751,8 +16327,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>900</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15781,11 +16363,17 @@
         <v>58563.05329370583</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>900</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15814,11 +16402,17 @@
         <v>56803.36599370583</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>900</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15847,11 +16441,17 @@
         <v>57066.09599370584</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>900</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15880,11 +16480,17 @@
         <v>54634.29539370583</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>900</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15916,8 +16522,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>900</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15949,8 +16561,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>900</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15982,8 +16600,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>900</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16015,8 +16639,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>900</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16048,8 +16678,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>900</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16081,8 +16717,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>900</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16114,8 +16756,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>900</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16147,8 +16795,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>900</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16180,8 +16834,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>900</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16213,8 +16873,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>900</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16246,8 +16912,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>900</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16279,8 +16951,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>900</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16312,8 +16990,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>900</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16345,8 +17029,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>900</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16378,8 +17068,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>900</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16411,8 +17107,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>900</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16444,8 +17146,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>900</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16477,8 +17185,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>900</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16510,8 +17224,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>900</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16543,8 +17263,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>900</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16576,8 +17302,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>900</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16609,8 +17341,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>900</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16642,8 +17380,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>900</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16672,15 +17416,23 @@
         <v>84328.83299660737</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>900</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
+        <v>1.055</v>
+      </c>
+      <c r="M435" t="n">
+        <v>1.072330654420207</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -16738,7 +17490,7 @@
         <v>86284.27289660736</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16771,7 +17523,7 @@
         <v>85240.01599660737</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16804,7 +17556,7 @@
         <v>83285.83879660736</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16837,7 +17589,7 @@
         <v>81906.51539660737</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16870,7 +17622,7 @@
         <v>76575.56579660738</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16903,7 +17655,7 @@
         <v>80296.11159660737</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16936,7 +17688,7 @@
         <v>82019.89379660737</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16969,7 +17721,7 @@
         <v>81907.11529660737</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17002,7 +17754,7 @@
         <v>81820.88279660737</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17035,7 +17787,7 @@
         <v>80132.66579660737</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17068,7 +17820,7 @@
         <v>75066.44049660736</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17101,7 +17853,7 @@
         <v>75075.44049660736</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17134,7 +17886,7 @@
         <v>74921.33369660737</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17167,7 +17919,7 @@
         <v>62516.61539660737</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17200,7 +17952,7 @@
         <v>63593.63959660737</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17233,7 +17985,7 @@
         <v>63119.02809660737</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17266,7 +18018,7 @@
         <v>63229.08989660737</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17299,7 +18051,7 @@
         <v>62905.90449660737</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17596,7 +18348,7 @@
         <v>66472.03387479315</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17662,7 +18414,7 @@
         <v>70964.92247479316</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17827,7 +18579,7 @@
         <v>68492.49337479316</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17893,7 +18645,7 @@
         <v>65453.49347479316</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17926,7 +18678,7 @@
         <v>63593.83637479317</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17959,7 +18711,7 @@
         <v>63666.12597479316</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18190,7 +18942,7 @@
         <v>64045.54237479316</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18256,7 +19008,7 @@
         <v>64788.91047479316</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18289,7 +19041,7 @@
         <v>64387.83107479316</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18322,7 +19074,7 @@
         <v>66941.37519145983</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18355,7 +19107,7 @@
         <v>63278.32279979316</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18388,7 +19140,7 @@
         <v>60995.62270719671</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18421,7 +19173,7 @@
         <v>60995.62270719671</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18454,7 +19206,7 @@
         <v>60611.81720719671</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18487,7 +19239,7 @@
         <v>60611.81720719671</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18520,7 +19272,7 @@
         <v>59308.0154071967</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18553,7 +19305,7 @@
         <v>57216.0541071967</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18586,7 +19338,7 @@
         <v>56055.3860071967</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18597,6 +19349,6 @@
       <c r="M493" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest WTC.xlsx
+++ b/BackTest/2019-10-28 BackTest WTC.xlsx
@@ -451,7 +451,7 @@
         <v>14775.0112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>15549.258</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>878</v>
+      </c>
+      <c r="J3" t="n">
+        <v>878</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>19473.85512403628</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>879</v>
+      </c>
+      <c r="J4" t="n">
+        <v>878</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>19473.85512403628</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>882</v>
+      </c>
+      <c r="J5" t="n">
+        <v>878</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>20363.6263</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>882</v>
+      </c>
+      <c r="J6" t="n">
+        <v>878</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>24936.4549</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>885</v>
+      </c>
+      <c r="J7" t="n">
+        <v>878</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>33510.56050000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>889</v>
+      </c>
+      <c r="J8" t="n">
+        <v>878</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>42836.8147</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>901</v>
+      </c>
+      <c r="J9" t="n">
+        <v>878</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,17 @@
         <v>42836.8147</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>878</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +806,17 @@
         <v>44076.8147</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>878</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,17 @@
         <v>39719.54790000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>878</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +884,17 @@
         <v>39750.54790000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>878</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +923,17 @@
         <v>38329.49200000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>878</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +965,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>878</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>878</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1043,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>878</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1079,17 @@
         <v>32938.5173</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>878</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1118,17 @@
         <v>32722.2265</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>878</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1157,17 @@
         <v>34268.6287</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>878</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1196,17 @@
         <v>29734.1016</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>878</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1235,17 @@
         <v>27874.7433</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>878</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1274,17 @@
         <v>29344.9532</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>878</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1313,17 @@
         <v>28787.1425</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>878</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1352,17 @@
         <v>27138.0667</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>878</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1394,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>878</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1433,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>878</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>878</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>878</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>878</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1586,17 @@
         <v>26617.50310000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>878</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1625,17 @@
         <v>26617.50310000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>878</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1664,17 @@
         <v>27512.42760000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>878</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1703,17 @@
         <v>28236.06270000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>878</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1742,17 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>878</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1781,17 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>878</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1820,17 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>878</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1859,17 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>878</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1898,17 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>878</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1937,17 @@
         <v>29341.0403</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>878</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1976,17 @@
         <v>29341.0403</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>878</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2015,17 @@
         <v>29156.0403</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>878</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2054,17 @@
         <v>28148.85420000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>878</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2096,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>878</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2135,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>878</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>878</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>878</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2252,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>878</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2291,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>878</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>878</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2369,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>878</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>878</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2447,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>878</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2486,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>878</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2525,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>878</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2564,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>878</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2603,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>878</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2642,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>878</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2681,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>878</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>878</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2759,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>878</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2798,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>878</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2837,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>878</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2876,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>878</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2915,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>878</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2954,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>878</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2993,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>878</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>878</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>878</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>878</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3149,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>878</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3188,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>878</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3227,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>878</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3266,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>878</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3305,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>878</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3344,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>878</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3383,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>878</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>878</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3461,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>878</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>878</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3539,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>878</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3578,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>878</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3617,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>878</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3656,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>878</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>878</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>878</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3773,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>878</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>878</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>878</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>878</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>878</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>878</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4007,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>878</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>878</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4085,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>878</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4124,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>878</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4163,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>878</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>878</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4241,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>878</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>878</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>878</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>878</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4397,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>878</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4436,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>878</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>878</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>878</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>878</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>878</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4631,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>878</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>878</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>878</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>878</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>878</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>878</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>878</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>878</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4943,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>878</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4979,17 @@
         <v>34814.04380000001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>878</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5021,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>878</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5060,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>878</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +5096,17 @@
         <v>35294.04380000001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>878</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>878</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>878</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>878</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>878</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>878</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>878</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>878</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5411,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>878</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>878</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5489,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>878</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5528,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>878</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5567,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>878</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5606,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>878</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5645,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>878</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5684,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>878</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>878</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5762,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>878</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5801,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>878</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5840,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>878</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5879,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>878</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>878</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5957,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>878</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>878</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +6035,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>878</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>878</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6113,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>878</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6152,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>878</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>878</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6230,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>878</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>878</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6308,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>878</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6347,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>878</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6386,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>878</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6425,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>878</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6464,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>878</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6503,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>878</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6542,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>878</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6581,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>878</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6620,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>878</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6659,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>878</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6698,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>878</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6737,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>878</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6776,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>878</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6815,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>878</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6854,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>878</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6893,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>878</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6932,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>878</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6971,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>878</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +7010,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>878</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +7049,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>878</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +7088,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>878</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +7127,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>878</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +7166,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>878</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +7205,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>878</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7244,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>878</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7283,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>878</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7322,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>878</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7361,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>878</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7400,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>878</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7439,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>878</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7478,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>878</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7517,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>878</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,15 +7553,15 @@
         <v>23141.32002477378</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>842</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>878</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6496,12 +7592,12 @@
         <v>23149.68532477378</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>842</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>878</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,12 +7631,12 @@
         <v>22193.82962477378</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>843</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>878</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,12 +7670,12 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>842</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>878</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,12 +7709,12 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>839</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>878</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,12 +7748,12 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>839</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>878</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,12 +7787,12 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>839</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>878</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,12 +7826,12 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>839</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>878</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,12 +7865,12 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>839</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>878</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,12 +7904,12 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>839</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>878</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,12 +7943,12 @@
         <v>22427.34752477378</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>839</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>878</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,12 +7982,12 @@
         <v>22427.34752477378</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>842</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>878</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,12 +8021,12 @@
         <v>23663.74452477378</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>842</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>878</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,12 +8060,12 @@
         <v>24460.76172477378</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>844</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>878</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7006,7 +8102,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>878</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7043,7 +8141,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>878</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,7 +8180,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>878</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7117,7 +8219,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>878</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7154,7 +8258,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>878</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7191,7 +8297,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>878</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7228,7 +8336,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>878</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7265,7 +8375,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>878</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7302,7 +8414,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>878</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7339,7 +8453,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>878</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7376,7 +8492,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>878</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7413,7 +8531,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>878</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,7 +8570,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>878</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7487,7 +8609,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>878</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,7 +8648,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>878</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7561,7 +8687,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>878</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7598,7 +8726,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>878</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7635,7 +8765,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>878</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7672,7 +8804,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>878</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,7 +8843,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>878</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,7 +8882,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>878</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7783,7 +8921,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>878</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7820,7 +8960,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>878</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7857,7 +8999,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>878</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,7 +9038,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>878</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7931,7 +9077,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>878</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7968,7 +9116,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>878</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8005,7 +9155,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>878</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8042,7 +9194,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>878</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,7 +9233,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>878</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8116,7 +9272,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>878</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,7 +9311,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>878</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8190,7 +9350,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>878</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8227,7 +9389,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>878</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8264,7 +9428,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>878</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,7 +9467,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>878</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,7 +9506,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>878</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8375,7 +9545,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>878</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,7 +9584,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>878</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8449,7 +9623,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>878</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8486,7 +9662,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>878</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,7 +9701,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>878</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8557,16 +9737,20 @@
         <v>28971.13699370582</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>878</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
       <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
@@ -8592,11 +9776,17 @@
         <v>30454.40339370582</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>878</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8625,11 +9815,17 @@
         <v>30080.75339370582</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>878</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8661,8 +9857,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>878</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8694,8 +9896,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>878</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8727,8 +9935,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>878</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8760,8 +9974,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>878</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8793,8 +10013,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>878</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8826,8 +10052,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>878</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8859,8 +10091,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>878</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8892,8 +10130,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>878</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8925,8 +10169,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>878</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8958,8 +10208,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>878</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8991,8 +10247,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>878</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9024,8 +10286,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>878</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9057,8 +10325,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>878</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9090,8 +10364,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>878</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9123,8 +10403,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>878</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9156,8 +10442,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>878</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9189,8 +10481,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>878</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9222,8 +10520,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>878</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9255,8 +10559,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>878</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9288,8 +10598,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>878</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9321,8 +10637,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>878</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9354,8 +10676,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>878</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9387,8 +10715,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>878</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9420,8 +10754,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>878</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9453,8 +10793,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>878</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9486,8 +10832,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>878</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9519,8 +10871,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>878</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9552,8 +10910,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>878</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9585,8 +10949,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>878</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9618,8 +10988,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>878</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9651,8 +11027,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>878</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9684,8 +11066,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>878</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9717,8 +11105,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>878</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9750,8 +11144,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>878</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9783,8 +11183,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>878</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9816,8 +11222,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>878</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9849,8 +11261,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>878</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9882,8 +11300,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>878</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9915,8 +11339,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>878</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9948,8 +11378,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>878</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9981,8 +11417,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>878</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10014,8 +11456,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>878</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10047,8 +11495,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>878</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10080,8 +11534,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>878</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10113,8 +11573,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>878</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10146,8 +11612,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>878</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10179,8 +11651,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>878</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10212,8 +11690,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>878</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10245,8 +11729,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>878</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10278,8 +11768,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>878</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10311,8 +11807,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>878</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10344,8 +11846,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>878</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10377,8 +11885,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>878</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10410,8 +11924,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>878</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10443,8 +11963,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>878</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10476,8 +12002,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>878</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10509,8 +12041,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>878</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10542,8 +12080,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>878</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10575,8 +12119,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>878</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10608,8 +12158,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>878</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10641,8 +12197,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>878</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10674,8 +12236,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>878</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10707,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>878</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10740,8 +12314,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>878</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10773,8 +12353,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>878</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10806,8 +12392,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>878</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10839,8 +12431,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>878</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10872,8 +12470,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>878</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10905,8 +12509,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>878</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10938,8 +12548,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>878</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10971,8 +12587,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>878</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11004,8 +12626,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>878</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11037,8 +12665,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>878</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11070,8 +12704,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>878</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11103,8 +12743,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>878</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11136,8 +12782,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>878</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11169,8 +12821,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>878</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11202,8 +12860,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>878</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11235,8 +12899,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>878</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11268,8 +12938,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>878</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11301,8 +12977,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>878</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11334,8 +13016,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>878</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11367,8 +13055,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>878</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11400,8 +13094,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>878</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11433,8 +13133,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>878</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11466,8 +13172,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>878</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11499,8 +13211,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>878</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11532,8 +13250,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>878</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11565,8 +13289,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>878</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11598,8 +13328,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>878</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11631,8 +13367,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>878</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11664,8 +13406,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>878</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11697,8 +13445,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>878</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11730,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>878</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11763,8 +13523,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>878</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11796,8 +13562,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>878</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11829,8 +13601,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>878</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11862,8 +13640,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>878</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11895,8 +13679,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>878</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11928,8 +13718,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>878</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11961,8 +13757,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>878</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11994,8 +13796,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>878</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12027,8 +13835,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>878</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12060,8 +13874,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>878</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12093,8 +13913,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>878</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12126,8 +13952,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>878</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12159,8 +13991,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>878</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12192,8 +14030,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>878</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12225,8 +14069,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>878</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12258,8 +14108,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>878</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12291,8 +14147,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>878</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12324,8 +14186,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>878</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12357,8 +14225,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>878</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12390,8 +14264,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>878</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12423,8 +14303,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>878</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12456,8 +14342,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>878</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12489,8 +14381,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>878</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12522,8 +14420,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>878</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12555,8 +14459,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>878</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12588,8 +14498,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>878</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12621,8 +14537,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>878</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12654,8 +14576,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>878</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12687,8 +14615,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>878</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12720,8 +14654,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>878</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12753,8 +14693,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>878</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12786,8 +14732,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>878</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12819,8 +14771,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>878</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12852,8 +14810,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>878</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12885,8 +14849,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>878</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12918,8 +14888,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>878</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12951,8 +14927,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>878</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12984,8 +14966,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>878</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13017,8 +15005,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>878</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13050,8 +15044,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>878</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13083,8 +15083,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>878</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13116,8 +15122,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>878</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13149,8 +15161,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>878</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13182,8 +15200,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>878</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13215,8 +15239,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>878</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13248,8 +15278,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>878</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13281,8 +15317,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>878</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13314,8 +15356,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>878</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13347,8 +15395,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>878</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13380,8 +15434,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>878</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13413,8 +15473,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>878</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13446,8 +15512,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>878</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13479,8 +15551,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>878</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13512,8 +15590,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>878</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13545,8 +15629,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>878</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13578,8 +15668,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>878</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13611,8 +15707,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>878</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13644,8 +15746,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>878</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13677,8 +15785,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>878</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13710,8 +15824,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>878</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13743,8 +15863,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>878</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13776,8 +15902,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>878</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13809,8 +15941,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>878</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13842,8 +15980,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>878</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13875,8 +16019,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>878</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13908,8 +16058,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>878</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13941,8 +16097,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>878</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13974,8 +16136,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>878</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14007,8 +16175,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>878</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14040,8 +16214,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>878</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14073,8 +16253,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>878</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14106,8 +16292,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>878</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14139,8 +16331,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>878</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14172,8 +16370,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>878</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14205,8 +16409,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>878</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14238,8 +16448,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>878</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14271,8 +16487,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>878</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14304,8 +16526,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>878</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14337,8 +16565,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>878</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14370,8 +16604,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>878</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14403,8 +16643,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>878</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14436,8 +16682,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>878</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14469,8 +16721,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>878</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14502,8 +16760,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>878</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14535,8 +16799,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>878</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14568,8 +16838,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>878</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14601,8 +16877,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>878</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14634,8 +16916,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>878</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14664,15 +16952,23 @@
         <v>85256.48469660737</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>878</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
+        <v>1.095227790432802</v>
+      </c>
+      <c r="M425" t="n">
+        <v>1.009184845005741</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -14697,7 +16993,7 @@
         <v>82653.08479660736</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14730,7 +17026,7 @@
         <v>83059.95549660736</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14763,7 +17059,7 @@
         <v>81565.78979660737</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14796,7 +17092,7 @@
         <v>83049.47069660737</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14829,7 +17125,7 @@
         <v>82881.59719660737</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14862,7 +17158,7 @@
         <v>81105.69889660737</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14895,7 +17191,7 @@
         <v>80356.54469660737</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14928,7 +17224,7 @@
         <v>78199.54469660737</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14961,7 +17257,7 @@
         <v>85224.03319660737</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14994,7 +17290,7 @@
         <v>84328.83299660737</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15027,7 +17323,7 @@
         <v>83418.58689660736</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15060,7 +17356,7 @@
         <v>86284.27289660736</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15093,7 +17389,7 @@
         <v>85240.01599660737</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15126,7 +17422,7 @@
         <v>83285.83879660736</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15159,7 +17455,7 @@
         <v>81906.51539660737</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15192,7 +17488,7 @@
         <v>76575.56579660738</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15225,7 +17521,7 @@
         <v>80296.11159660737</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15258,7 +17554,7 @@
         <v>82019.89379660737</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15324,7 +17620,7 @@
         <v>81820.88279660737</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15357,7 +17653,7 @@
         <v>80132.66579660737</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15390,7 +17686,7 @@
         <v>75066.44049660736</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15423,7 +17719,7 @@
         <v>75075.44049660736</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15456,7 +17752,7 @@
         <v>74921.33369660737</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15489,7 +17785,7 @@
         <v>62516.61539660737</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
